--- a/data/data_comment.xlsx
+++ b/data/data_comment.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testing\RobotFramework\LibQNU\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0D270AC-47A9-4AD1-BD10-C8B4C214347C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6B96A-0940-43AC-B7F5-5EACA876CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11370" yWindow="5985" windowWidth="17280" windowHeight="9465" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19608" yWindow="2952" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -411,8 +411,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/data/data_comment.xlsx
+++ b/data/data_comment.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Code\Testing\RobotFramework\LibQNU\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C6B96A-0940-43AC-B7F5-5EACA876CBB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE61C5B2-4C76-46A8-9F78-5335423E76E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19608" yWindow="2952" windowWidth="17280" windowHeight="9468" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4725" yWindow="2265" windowWidth="21600" windowHeight="11835" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="22">
   <si>
     <t>${msg_alert_cmt_content}</t>
   </si>
@@ -80,13 +81,25 @@
   </si>
   <si>
     <t>${data_cmt_cardNum}</t>
+  </si>
+  <si>
+    <t>*** Test case ***</t>
+  </si>
+  <si>
+    <t>TC055 - Xác minh yêu cầu nhập các trường khi gửi ý kiến</t>
+  </si>
+  <si>
+    <t>TC056 - Xác minh nút làm lại trong chức năng góp ý</t>
+  </si>
+  <si>
+    <t>TC057 - Xác minh chức năng gửi góp ý</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -98,6 +111,13 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -124,10 +144,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -408,111 +429,198 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2DAB6-7681-4183-A94B-8BACFF94AF8B}">
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="39.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>6</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{0D6C6BE5-1058-44B0-A465-B7A4E2E8C98B}"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{0D6C6BE5-1058-44B0-A465-B7A4E2E8C98B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{56D2DAB6-7681-4183-A94B-8BACFF94AF8B}">
-  <dimension ref="A1:C2"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5BF58D7-2FEF-439C-B42A-7D4A125C8E72}">
+  <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9:C10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="22.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="51" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="20.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="22.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="83.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="39.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>9</v>
+        <v>17</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{E5014AF8-AE55-4DCA-8DAF-3F3E652D62DA}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>